--- a/src/files/thg/data/THG_Luftschadstoff_1990_2017_Emissionshandel.xlsx
+++ b/src/files/thg/data/THG_Luftschadstoff_1990_2017_Emissionshandel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\MitarbeiterInnen\WGO\IGW-BL-Vergleich\Statistiken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\enerbal\src\files\thg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -428,43 +428,43 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1">
         <v>2005</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1">
         <v>2006</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1">
         <v>2007</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1">
         <v>2008</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1">
         <v>2009</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1">
         <v>2010</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1">
         <v>2011</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1">
         <v>2012</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1">
         <v>2013</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1">
         <v>2014</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1">
         <v>2015</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1">
         <v>2016</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1">
         <v>2017</v>
       </c>
       <c r="O1" s="1"/>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B1" sqref="B1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
